--- a/data/trans_dic/IP1014-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1014-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,22 +795,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,15</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,64</t>
+          <t>0,08; 0,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,92</t>
+          <t>0,16; 0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,45</t>
+          <t>0,0; 0,47</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,27 +1125,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,04</t>
+          <t>0,19; 1,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,3</t>
+          <t>0,27; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,79</t>
+          <t>0,08; 0,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,4</t>
+          <t>0,0; 0,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,76</t>
+          <t>0,19; 0,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,41</t>
+          <t>0,04; 0,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1014-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1014-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0,14; 1,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,25; 1,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,08; 0,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,15; 0,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,2%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,48</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,63</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,93</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,27%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,41</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,18; 1,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,27; 1,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,08; 0,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,13; 0,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,2; 0,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,09%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 1,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,82</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,47</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,58</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,78</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
